--- a/backend/projects/project-a-123-sunset-blvd/data/20_BANK_RECONCILIATION/Bank_Reconciliation_Monthly.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/20_BANK_RECONCILIATION/Bank_Reconciliation_Monthly.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,11 +447,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
@@ -463,19 +458,12 @@
         <v>89450</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
           <t>Add: Deposits in Transit</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -504,19 +492,12 @@
         <v/>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
           <t>Less: Outstanding Checks</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -560,11 +541,6 @@
         <v/>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
@@ -577,19 +553,12 @@
         <v/>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
           <t>Reconciling Items:</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -597,7 +566,6 @@
           <t>Bank fees not yet recorded</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" s="4" t="n">
         <v>-500</v>
       </c>
@@ -608,16 +576,10 @@
           <t>Interest income not yet recorded</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" s="4" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
@@ -626,6 +588,342 @@
       </c>
       <c r="B21" s="2" t="inlineStr"/>
       <c r="C21" s="3">
+        <f>C17+SUM(C20:C21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="C22">
+        <f>C17+SUM(C20:C21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="C23">
+        <f>C17+SUM(C20:C21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="C24">
+        <f>C17+SUM(C20:C21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="C25">
+        <f>C17+SUM(C20:C21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="C26">
+        <f>C17+SUM(C20:C21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="C27">
+        <f>C17+SUM(C20:C21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="C28">
+        <f>C17+SUM(C20:C21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="C29">
+        <f>C17+SUM(C20:C21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="C30">
+        <f>C17+SUM(C20:C21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="C31">
+        <f>C17+SUM(C20:C21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="C32">
+        <f>C17+SUM(C20:C21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="C33">
+        <f>C17+SUM(C20:C21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="C34">
+        <f>C17+SUM(C20:C21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="C35">
+        <f>C17+SUM(C20:C21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="C36">
+        <f>C17+SUM(C20:C21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="C37">
+        <f>C17+SUM(C20:C21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="C38">
+        <f>C17+SUM(C20:C21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+      <c r="C39">
+        <f>C17+SUM(C20:C21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+      <c r="C40">
+        <f>C17+SUM(C20:C21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+      <c r="C41">
+        <f>C17+SUM(C20:C21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+      <c r="C42">
         <f>C17+SUM(C20:C21)</f>
         <v/>
       </c>
